--- a/DOM_Banner/output/dept_banner/Amitoj Singh_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Amitoj Singh_2022.xlsx
@@ -545,17 +545,17 @@
           <t>list(au_id = c("https://openalex.org/A5058797758", "https://openalex.org/A5088880301", "https://openalex.org/A5055186216", "https://openalex.org/A5023144660", "https://openalex.org/A5028337088", "https://openalex.org/A5039886489", "https://openalex.org/A5021048277", "https://openalex.org/A5050857638", "https://openalex.org/A5089965419", "https://openalex.org/A5078889450", "https://openalex.org/A5053447705", "https://openalex.org/A5020062624", "https://openalex.org/A5026240959", "https://openalex.org/A5028741844", 
 "https://openalex.org/A5028252345", "https://openalex.org/A5003566920", "https://openalex.org/A5036104691", "https://openalex.org/A5063119143", "https://openalex.org/A5022061316", "https://openalex.org/A5043239801", "https://openalex.org/A5056052492", "https://openalex.org/A5039021014", "https://openalex.org/A5067938962", "https://openalex.org/A5029312162", "https://openalex.org/A5027720323", "https://openalex.org/A5062580357"), au_display_name = c("Ashutosh Verma", "Venu Bhagavatula", "Amitoj Singh", 
 "Wanghua Wu", "Hariharan Nagarajan", "Pak-Kim Lau", "Xiaohua Yu", "Omar Elsayed", "Ajaypat Jain", "Anirban Sarkar", "Fan Zhang", "Chechun Kuo", "Patrick McElwee", "Pei-Yuan Chiang", "Chengkai Guo", "Zhanjun Bai", "Tienyu Chang", "Abishek Mann", "Andreas Rydin", "Xingliang Zhao", "Jeiyoung Lee", "Duk Yong Yoon", "Chunhua Yao", "Siuchuang Ivan Lu", "Sang Won Son", "Thomas B. Cho"), au_orcid = c("https://orcid.org/0000-0003-0677-0623", NA, "https://orcid.org/0000-0003-1977-1270", NA, NA, NA, "https://orcid.org/0000-0002-8806-2294", 
-NA, NA, "https://orcid.org/0000-0003-2592-8967", "https://orcid.org/0000-0002-8038-8150", NA, NA, NA, "https://orcid.org/0000-0001-6279-2128", NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Samsung Semiconductor,San Jose,CA", 
-"Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", 
-"Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Electronics,Hwaseong,Korea", "Samsung Electronics,Hwaseong,Korea", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Electronics,Hwaseong,Korea"), institution_id = c("https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", 
-"https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", 
-"https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973", "https://openalex.org/I2250650973", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973"), institution_display_name = c("ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", 
-"ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", 
-"Samsung (South Korea)", "Samsung (South Korea)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "Samsung (South Korea)"), institution_ror = c("https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", 
-"https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/04w3jy968", "https://ror.org/04w3jy968", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/04w3jy968"), institution_country_code = c("US", "US", "US", "US", "US", "US", 
-"US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "KR", "KR", "US", "US", "US", "KR"), institution_type = c("company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company"), institution_lineage = c("https://openalex.org/I100625452", "https://openalex.org/I100625452", 
-"https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", 
-"https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973", "https://openalex.org/I2250650973", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973"))</t>
+NA, NA, "https://orcid.org/0000-0003-2592-8967", "https://orcid.org/0000-0002-8038-8150", NA, NA, NA, "https://orcid.org/0000-0001-6279-2128", NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0003-4724-5980", NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), 
+    au_affiliation_raw = c("Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", 
+    "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Electronics,Hwaseong,Korea", "Samsung Electronics,Hwaseong,Korea", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Semiconductor,San Jose,CA", "Samsung Electronics,Hwaseong,Korea"), institution_id = c("https://openalex.org/I100625452", 
+    "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", 
+    "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973", "https://openalex.org/I2250650973", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973"), institution_display_name = c("ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", 
+    "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", 
+    "ON Semiconductor (United States)", "ON Semiconductor (United States)", "Samsung (South Korea)", "Samsung (South Korea)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "ON Semiconductor (United States)", "Samsung (South Korea)"), institution_ror = c("https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", 
+    "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/04w3jy968", "https://ror.org/04w3jy968", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/03nw6pt28", "https://ror.org/04w3jy968"
+    ), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "KR", "KR", "US", "US", "US", "KR"), institution_type = c("company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company", "company"), 
+    institution_lineage = c("https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", 
+    "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973", "https://openalex.org/I2250650973", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I100625452", "https://openalex.org/I2250650973"))</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W2887977033", "https://openalex.org/W1603247725", "https://openalex.org/W2025189825", "https://openalex.org/W2542369553", "https://openalex.org/W2254475231", "https://openalex.org/W1551765164", "https://openalex.org/W2748952813", "https://openalex.org/W2148580714", "https://openalex.org/W3191720930")</t>
+          <t>c("https://openalex.org/W2142628816", "https://openalex.org/W2092724722", "https://openalex.org/W2058891853", "https://openalex.org/W4249165909", "https://openalex.org/W2783437851", "https://openalex.org/W1672137312", "https://openalex.org/W1650483958", "https://openalex.org/W2320869333", "https://openalex.org/W2110290642", "https://openalex.org/W2744385696")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Amitoj Singh_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Amitoj Singh_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Electronics,Hwaseong,Korea; Samsung Electronics,Hwaseong,Korea; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Semiconductor, San Jose, CA; Samsung Electronics,Hwaseong,Korea</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220995079</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A 16-Channel, 28/39GHz Dual-Polarized 5G FR2 Phased-Array Transceiver IC with a Quad-Stream IF Transceiver Supporting Non-Contiguous Carrier Aggregation up to 1.6GHz BW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022 IEEE International Solid- State Circuits Conference (ISSCC)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1109/isscc42614.2022.9731664</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/isscc42614.2022.9731664</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,162 +534,172 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yin Ge, Ankur Pandya, Sarah Cuddy, Amitoj Singh, Avinainder Singh, Sharmila Dorbala</t>
+          <t>Amitoj Singh, Vinay Kukreja, Taghi Javdani Gandomani</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295570938</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Modeling the Cost and Health Impacts of Diagnostic Strategies in Patients with Suspected Transthyretin Cardiac Amyloidosis</t>
+          <t>https://openalex.org/W4281786685</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>Machine Learning for Edge Computing</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Journal of the American Heart Association</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.122.026308</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1201/9781003143468</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36102240</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/jaha.122.026308</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781003143468</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>book</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vardhmaan Jain, Kartik Gupta, Kirtipal Bhatia, Indranee Rajapreyar, Amitoj Singh, Wunan Zhou, Allan L. Klein, Navin C. Nanda, Sumanth D. Prabhu, Navkaranbir Bajaj</t>
+          <t>Yin Ge, Ankur Pandya, Sarah Cuddy, Amitoj Singh, Avinainder Singh, Sharmila Dorbala</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302013325</t>
+          <t>Division of Cardiology, Department of Medicine St. Michael’s Hospital, University of Toronto Toronto Canada; Department of Health Policy and Management Harvard T.H. Chan School of Public Health Boston MA; Amyloidosis Program, Division of Cardiology, Department of Medicine Brigham and Women’s Hospital Boston MA; Sarver Heart Center, Division of Cardiology, Department of Medicine University of Arizona, Tucson (Banner University Medical Center) Tucson AZ; Cardiovascular Division, Department of Medicine Brigham and Women’s Hospital Boston MA; Amyloidosis Program, Division of Cardiology, Department of Medicine Brigham and Women’s Hospital Boston MA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coronary flow abnormalities in chronic kidney disease: A systematic review and meta‐analysis</t>
+          <t>https://openalex.org/W4295570938</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>Modeling the Cost and Health Impacts of Diagnostic Strategies in Patients with Suspected Transthyretin Cardiac Amyloidosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Echocardiography</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Journal of the American Heart Association</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/echo.15445</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1161/jaha.122.026308</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36198077</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/echo.15445</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36102240</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/jaha.122.026308</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Amitoj Singh, Vinay Kukreja, Taghi Javdani Gandomani</t>
+          <t>Vardhmaan Jain, Kartik Gupta, Kirtipal Bhatia, Indranee Rajapreyar, Amitoj Singh, Wunan Zhou, Allan L. Klein, Navin C. Nanda, Sumanth D. Prabhu, Navkaranbir Bajaj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281786685</t>
+          <t>Department of Medicine Cleveland Clinic  Cleveland Ohio USA; Department of Medicine Henry Ford Hospital  Detroit Michigan USA; Department of Cardiology Icahn School of Medicine at Mount Sinai (Morningside)  New York USA; Advanced Heart failure and Transplantation Center Jefferson University Hospital  Philadelphia Pennsylvania USA; Division of Cardiology University of Arizona College of Medicine‐Tucson  Arizona USA; National Institute of Health  Bethesda Maryland USA; Department of Medicine Henry Ford Hospital  Detroit Michigan USA; Division of Cardiovascular Diseases University of Alabama at Birmingham  Birmingham Alabama USA; Division of Cardiology Washington University  St. Louis Missouri USA; Asheville Cardiology Associates  Asheville North Carolina USA; Division of Cardiovascular Diseases University of Alabama at Birmingham  Birmingham Alabama USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Machine Learning for Edge Computing</t>
+          <t>https://openalex.org/W4302013325</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>Coronary flow abnormalities in chronic kidney disease: A systematic review and meta‐analysis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Echocardiography</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781003143468</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1111/echo.15445</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -733,37 +753,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781003143468</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36198077</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>https://doi.org/10.1111/echo.15445</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224310060</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Paget-Schroetter Syndrome (PSS) and Adjunctive Treatment With Mechanical Aspiration Thrombectomy and Catheter Directed Thrombolysis: A Case Report and Review of Literature</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cureus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cureus, Inc.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.24437</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35637834</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.7759/cureus.24437</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Chitkara University - Chitkara School of Health Sciences, Chitkara University, Punjab; Chitkara University; Maharaja Ranjit Singh Punjab Technical University (MRSPTU)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285685043</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Study on State-Of- Art for Recognizing the Offline Handwritten Gurmukhi Work</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Social Science Research Network</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>RELX Group (Netherlands)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4160639</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4160639</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>St.Luke's Univ Helath Network, Bethlehem, PA; St. Luke's Univ Hosp, Bethlehem, PA; Univ Of Arizona, Tucson, AZ; ST LUKES UNIVERSITY HEALTH NETWORK, Bethlehem, PA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794261</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Abstract 11088: Childbirth Related Complications in Women With Hypertrophic Cardiomyopathy</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11088</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.11088</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
